--- a/data/data_ananlyse/_buy_fv_3_sold_basic/min_0$$bill$$_buy_fv_3__sold_basic$$.xlsx
+++ b/data/data_ananlyse/_buy_fv_3_sold_basic/min_0$$bill$$_buy_fv_3__sold_basic$$.xlsx
@@ -511,10 +511,10 @@
         <v>2044.551</v>
       </c>
       <c r="H4">
-        <v>0.8166999907828966</v>
+        <v>0.8166999907828965</v>
       </c>
       <c r="I4">
-        <v>0.8166999907828966</v>
+        <v>0.8166999907828965</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -569,10 +569,10 @@
         <v>2150.971</v>
       </c>
       <c r="H6">
-        <v>0.667301106013673</v>
+        <v>0.6673011060136729</v>
       </c>
       <c r="I6">
-        <v>0.667301106013673</v>
+        <v>0.6673011060136729</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-0.8166999907828966</v>
+        <v>-0.8166999907828965</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -714,10 +714,10 @@
         <v>2190.185</v>
       </c>
       <c r="H11">
-        <v>0.6577798620769872</v>
+        <v>0.6577798620769871</v>
       </c>
       <c r="I11">
-        <v>0.6577798620769872</v>
+        <v>0.6577798620769871</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -772,10 +772,10 @@
         <v>2215.7</v>
       </c>
       <c r="H13">
-        <v>0.7678895181373282</v>
+        <v>0.7678895181373281</v>
       </c>
       <c r="I13">
-        <v>0.7678895181373282</v>
+        <v>0.7678895181373281</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-0.667301106013673</v>
+        <v>-0.6673011060136729</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -859,10 +859,10 @@
         <v>2479.789</v>
       </c>
       <c r="H16">
-        <v>0.5551790639953024</v>
+        <v>0.5551790639953023</v>
       </c>
       <c r="I16">
-        <v>0.5551790639953024</v>
+        <v>0.5551790639953023</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>-0.6577798620769872</v>
+        <v>-0.6577798620769871</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>-0.7678895181373282</v>
+        <v>-0.7678895181373281</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1265,10 +1265,10 @@
         <v>2750.01</v>
       </c>
       <c r="H30">
-        <v>0.4069885670622958</v>
+        <v>0.4069885670622959</v>
       </c>
       <c r="I30">
-        <v>0.4069885670622958</v>
+        <v>0.4069885670622959</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>-0.5551790639953024</v>
+        <v>-0.5551790639953023</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1468,10 +1468,10 @@
         <v>3057.428</v>
       </c>
       <c r="H37">
-        <v>0.322451053984146</v>
+        <v>0.3224510539841461</v>
       </c>
       <c r="I37">
-        <v>0.322451053984146</v>
+        <v>0.3224510539841461</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>-0.4069885670622958</v>
+        <v>-0.4069885670622959</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1671,10 +1671,10 @@
         <v>3282.359000000001</v>
       </c>
       <c r="H44">
-        <v>0.2632858161836121</v>
+        <v>0.263285816183612</v>
       </c>
       <c r="I44">
-        <v>0.2632858161836121</v>
+        <v>0.263285816183612</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>-0.322451053984146</v>
+        <v>-0.3224510539841461</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>-0.2632858161836121</v>
+        <v>-0.263285816183612</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2019,10 +2019,10 @@
         <v>3144.39</v>
       </c>
       <c r="H56">
-        <v>0.4290501609155045</v>
+        <v>0.4290501609155046</v>
       </c>
       <c r="I56">
-        <v>0.4290501609155045</v>
+        <v>0.4290501609155046</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2048,10 +2048,10 @@
         <v>3156.301</v>
       </c>
       <c r="H57">
-        <v>0.3811446237296218</v>
+        <v>0.3811446237296219</v>
       </c>
       <c r="I57">
-        <v>0.3811446237296218</v>
+        <v>0.3811446237296219</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2106,10 +2106,10 @@
         <v>3162.914</v>
       </c>
       <c r="H59">
-        <v>0.3763761214160384</v>
+        <v>0.3763761214160385</v>
       </c>
       <c r="I59">
-        <v>0.3763761214160384</v>
+        <v>0.3763761214160385</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>-0.4290501609155045</v>
+        <v>-0.4290501609155046</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>-0.3811446237296218</v>
+        <v>-0.3811446237296219</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>-0.3763761214160384</v>
+        <v>-0.3763761214160385</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2483,10 +2483,10 @@
         <v>3642.437</v>
       </c>
       <c r="H72">
-        <v>0.2442165423337765</v>
+        <v>0.2442165423337764</v>
       </c>
       <c r="I72">
-        <v>0.2442165423337765</v>
+        <v>0.2442165423337764</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2628,10 +2628,10 @@
         <v>3438.817</v>
       </c>
       <c r="H77">
-        <v>0.3512483434169386</v>
+        <v>0.3512483434169387</v>
       </c>
       <c r="I77">
-        <v>0.3512483434169386</v>
+        <v>0.3512483434169387</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2657,10 +2657,10 @@
         <v>3575.684</v>
       </c>
       <c r="H78">
-        <v>0.2827349768276614</v>
+        <v>0.2827349768276613</v>
       </c>
       <c r="I78">
-        <v>0.2827349768276614</v>
+        <v>0.2827349768276613</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2744,10 +2744,10 @@
         <v>3408.574</v>
       </c>
       <c r="H81">
-        <v>0.3510093897157433</v>
+        <v>0.3510093897157434</v>
       </c>
       <c r="I81">
-        <v>0.3510093897157433</v>
+        <v>0.3510093897157434</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2831,10 +2831,10 @@
         <v>3220.398</v>
       </c>
       <c r="H84">
-        <v>0.4445918970980007</v>
+        <v>0.4445918970980006</v>
       </c>
       <c r="I84">
-        <v>0.4445918970980007</v>
+        <v>0.4445918970980006</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2860,10 +2860,10 @@
         <v>3292.128</v>
       </c>
       <c r="H85">
-        <v>0.4226464594404263</v>
+        <v>0.4226464594404264</v>
       </c>
       <c r="I85">
-        <v>0.4226464594404263</v>
+        <v>0.4226464594404264</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2889,10 +2889,10 @@
         <v>3250.573</v>
       </c>
       <c r="H86">
-        <v>0.3976419905455258</v>
+        <v>0.3976419905455259</v>
       </c>
       <c r="I86">
-        <v>0.3976419905455258</v>
+        <v>0.3976419905455259</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3005,10 +3005,10 @@
         <v>3391.935</v>
       </c>
       <c r="H90">
-        <v>0.3838792999885052</v>
+        <v>0.3838792999885051</v>
       </c>
       <c r="I90">
-        <v>0.3838792999885052</v>
+        <v>0.3838792999885051</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3063,10 +3063,10 @@
         <v>3394.574</v>
       </c>
       <c r="H92">
-        <v>0.3685181609311521</v>
+        <v>0.3685181609311522</v>
       </c>
       <c r="I92">
-        <v>0.3685181609311521</v>
+        <v>0.3685181609311522</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3150,10 +3150,10 @@
         <v>2896.856</v>
       </c>
       <c r="H95">
-        <v>0.629526028273892</v>
+        <v>0.6295260282738921</v>
       </c>
       <c r="I95">
-        <v>0.629526028273892</v>
+        <v>0.6295260282738921</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3179,10 +3179,10 @@
         <v>2886.911</v>
       </c>
       <c r="H96">
-        <v>0.7728802690276313</v>
+        <v>0.7728802690276314</v>
       </c>
       <c r="I96">
-        <v>0.7728802690276313</v>
+        <v>0.7728802690276314</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3295,10 +3295,10 @@
         <v>2750.023</v>
       </c>
       <c r="H100">
-        <v>0.863548560682083</v>
+        <v>0.8635485606820831</v>
       </c>
       <c r="I100">
-        <v>0.863548560682083</v>
+        <v>0.8635485606820831</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3411,10 +3411,10 @@
         <v>2575.921000000001</v>
       </c>
       <c r="H104">
-        <v>1.098777271546113</v>
+        <v>1.098777271546112</v>
       </c>
       <c r="I104">
-        <v>1.098777271546113</v>
+        <v>1.098777271546112</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3556,10 +3556,10 @@
         <v>2850.829</v>
       </c>
       <c r="H109">
-        <v>0.719168839389099</v>
+        <v>0.7191688393890993</v>
       </c>
       <c r="I109">
-        <v>0.719168839389099</v>
+        <v>0.7191688393890993</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <v>-1.098777271546113</v>
+        <v>-1.098777271546112</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3759,10 +3759,10 @@
         <v>2857.789</v>
       </c>
       <c r="H116">
-        <v>0.6903233276503282</v>
+        <v>0.6903233276503281</v>
       </c>
       <c r="I116">
-        <v>0.6903233276503282</v>
+        <v>0.6903233276503281</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="I121">
-        <v>-0.863548560682083</v>
+        <v>-0.8635485606820831</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4049,10 +4049,10 @@
         <v>3224.14</v>
       </c>
       <c r="H126">
-        <v>0.435907960876439</v>
+        <v>0.4359079608764391</v>
       </c>
       <c r="I126">
-        <v>0.435907960876439</v>
+        <v>0.4359079608764391</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="I127">
-        <v>-0.629526028273892</v>
+        <v>-0.6295260282738921</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="I128">
-        <v>-0.7728802690276313</v>
+        <v>-0.7728802690276314</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>-0.719168839389099</v>
+        <v>-0.7191688393890993</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <v>-0.6903233276503282</v>
+        <v>-0.6903233276503281</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4513,10 +4513,10 @@
         <v>3509.975</v>
       </c>
       <c r="H142">
-        <v>0.3269726795153078</v>
+        <v>0.3269726795153077</v>
       </c>
       <c r="I142">
-        <v>0.3269726795153078</v>
+        <v>0.3269726795153077</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4600,10 +4600,10 @@
         <v>3155.059</v>
       </c>
       <c r="H145">
-        <v>0.482635093539692</v>
+        <v>0.4826350935396919</v>
       </c>
       <c r="I145">
-        <v>0.482635093539692</v>
+        <v>0.4826350935396919</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4745,10 +4745,10 @@
         <v>3159.643</v>
       </c>
       <c r="H150">
-        <v>0.489677819063988</v>
+        <v>0.4896778190639879</v>
       </c>
       <c r="I150">
-        <v>0.489677819063988</v>
+        <v>0.4896778190639879</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4803,10 +4803,10 @@
         <v>2944.713</v>
       </c>
       <c r="H152">
-        <v>0.603369724653676</v>
+        <v>0.6033697246536761</v>
       </c>
       <c r="I152">
-        <v>0.603369724653676</v>
+        <v>0.6033697246536761</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4919,10 +4919,10 @@
         <v>3190.935</v>
       </c>
       <c r="H156">
-        <v>0.4920285668654157</v>
+        <v>0.4920285668654158</v>
       </c>
       <c r="I156">
-        <v>0.4920285668654157</v>
+        <v>0.4920285668654158</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5093,10 +5093,10 @@
         <v>3324.419000000001</v>
       </c>
       <c r="H162">
-        <v>0.4184761812482808</v>
+        <v>0.4184761812482809</v>
       </c>
       <c r="I162">
-        <v>0.4184761812482808</v>
+        <v>0.4184761812482809</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5180,10 +5180,10 @@
         <v>3161.776</v>
       </c>
       <c r="H165">
-        <v>0.4810399975087288</v>
+        <v>0.4810399975087289</v>
       </c>
       <c r="I165">
-        <v>0.4810399975087288</v>
+        <v>0.4810399975087289</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5209,10 +5209,10 @@
         <v>3126.117</v>
       </c>
       <c r="H166">
-        <v>0.5403481409770495</v>
+        <v>0.5403481409770494</v>
       </c>
       <c r="I166">
-        <v>0.5403481409770495</v>
+        <v>0.5403481409770494</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5238,10 +5238,10 @@
         <v>3101.603</v>
       </c>
       <c r="H167">
-        <v>0.5409700732867904</v>
+        <v>0.5409700732867905</v>
       </c>
       <c r="I167">
-        <v>0.5409700732867904</v>
+        <v>0.5409700732867905</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5296,10 +5296,10 @@
         <v>2978.381</v>
       </c>
       <c r="H169">
-        <v>0.6296566538303348</v>
+        <v>0.6296566538303346</v>
       </c>
       <c r="I169">
-        <v>0.6296566538303348</v>
+        <v>0.6296566538303346</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5325,10 +5325,10 @@
         <v>2955.705</v>
       </c>
       <c r="H170">
-        <v>0.6611355406517189</v>
+        <v>0.6611355406517188</v>
       </c>
       <c r="I170">
-        <v>0.6611355406517189</v>
+        <v>0.6611355406517188</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5354,10 +5354,10 @@
         <v>2951.889</v>
       </c>
       <c r="H171">
-        <v>0.6425110849572792</v>
+        <v>0.6425110849572793</v>
       </c>
       <c r="I171">
-        <v>0.6425110849572792</v>
+        <v>0.6425110849572793</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5528,10 +5528,10 @@
         <v>3059.139</v>
       </c>
       <c r="H177">
-        <v>0.5676786693235892</v>
+        <v>0.5676786693235893</v>
       </c>
       <c r="I177">
-        <v>0.5676786693235892</v>
+        <v>0.5676786693235893</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5586,10 +5586,10 @@
         <v>2960.309</v>
       </c>
       <c r="H179">
-        <v>0.6674056489113526</v>
+        <v>0.6674056489113525</v>
       </c>
       <c r="I179">
-        <v>0.6674056489113526</v>
+        <v>0.6674056489113525</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5615,10 +5615,10 @@
         <v>2866.924</v>
       </c>
       <c r="H180">
-        <v>0.8346223759956662</v>
+        <v>0.8346223759956661</v>
       </c>
       <c r="I180">
-        <v>0.8346223759956662</v>
+        <v>0.8346223759956661</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5644,10 +5644,10 @@
         <v>2834.254000000001</v>
       </c>
       <c r="H181">
-        <v>0.7531373552671513</v>
+        <v>0.7531373552671514</v>
       </c>
       <c r="I181">
-        <v>0.7531373552671513</v>
+        <v>0.7531373552671514</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -5702,10 +5702,10 @@
         <v>2834.535</v>
       </c>
       <c r="H183">
-        <v>0.7801816959554714</v>
+        <v>0.7801816959554713</v>
       </c>
       <c r="I183">
-        <v>0.7801816959554714</v>
+        <v>0.7801816959554713</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -5731,10 +5731,10 @@
         <v>2756.105</v>
       </c>
       <c r="H184">
-        <v>0.8579469746343559</v>
+        <v>0.8579469746343558</v>
       </c>
       <c r="I184">
-        <v>0.8579469746343559</v>
+        <v>0.8579469746343558</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -5760,10 +5760,10 @@
         <v>2729.051</v>
       </c>
       <c r="H185">
-        <v>0.9180946061727153</v>
+        <v>0.9180946061727152</v>
       </c>
       <c r="I185">
-        <v>0.9180946061727153</v>
+        <v>0.9180946061727152</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -5818,10 +5818,10 @@
         <v>2588.185</v>
       </c>
       <c r="H187">
-        <v>1.131681626006549</v>
+        <v>1.13168162600655</v>
       </c>
       <c r="I187">
-        <v>1.131681626006549</v>
+        <v>1.13168162600655</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -5934,10 +5934,10 @@
         <v>2744.301</v>
       </c>
       <c r="H191">
-        <v>0.8862681507661092</v>
+        <v>0.8862681507661093</v>
       </c>
       <c r="I191">
-        <v>0.8862681507661092</v>
+        <v>0.8862681507661093</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -5992,10 +5992,10 @@
         <v>2662.017000000001</v>
       </c>
       <c r="H193">
-        <v>0.9966382305085987</v>
+        <v>0.9966382305085989</v>
       </c>
       <c r="I193">
-        <v>0.9966382305085987</v>
+        <v>0.9966382305085989</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6253,10 +6253,10 @@
         <v>2468.35</v>
       </c>
       <c r="H202">
-        <v>1.407994020650507</v>
+        <v>1.407994020650508</v>
       </c>
       <c r="I202">
-        <v>1.407994020650507</v>
+        <v>1.407994020650508</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6340,10 +6340,10 @@
         <v>2536.074</v>
       </c>
       <c r="H205">
-        <v>1.17682680277194</v>
+        <v>1.176826802771941</v>
       </c>
       <c r="I205">
-        <v>1.17682680277194</v>
+        <v>1.176826802771941</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6688,10 +6688,10 @@
         <v>2570.436</v>
       </c>
       <c r="H217">
-        <v>1.162620608838131</v>
+        <v>1.16262060883813</v>
       </c>
       <c r="I217">
-        <v>1.162620608838131</v>
+        <v>1.16262060883813</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -6746,10 +6746,10 @@
         <v>2631.487</v>
       </c>
       <c r="H219">
-        <v>0.9964141067754376</v>
+        <v>0.9964141067754378</v>
       </c>
       <c r="I219">
-        <v>0.9964141067754376</v>
+        <v>0.9964141067754378</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7094,10 +7094,10 @@
         <v>2424.322</v>
       </c>
       <c r="H231">
-        <v>1.389953137054292</v>
+        <v>1.389953137054291</v>
       </c>
       <c r="I231">
-        <v>1.389953137054292</v>
+        <v>1.389953137054291</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7123,10 +7123,10 @@
         <v>2347.488</v>
       </c>
       <c r="H232">
-        <v>1.520456731840686</v>
+        <v>1.520456731840685</v>
       </c>
       <c r="I232">
-        <v>1.520456731840686</v>
+        <v>1.520456731840685</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7500,10 +7500,10 @@
         <v>2297.884</v>
       </c>
       <c r="H245">
-        <v>1.720942954546277</v>
+        <v>1.720942954546278</v>
       </c>
       <c r="I245">
-        <v>1.720942954546277</v>
+        <v>1.720942954546278</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -8109,10 +8109,10 @@
         <v>2582.755</v>
       </c>
       <c r="H266">
-        <v>0.9464628288095204</v>
+        <v>0.9464628288095203</v>
       </c>
       <c r="I266">
-        <v>0.9464628288095204</v>
+        <v>0.9464628288095203</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="I271">
-        <v>-1.720942954546277</v>
+        <v>-1.720942954546278</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -8370,10 +8370,10 @@
         <v>2686.882</v>
       </c>
       <c r="H275">
-        <v>0.8136981245239672</v>
+        <v>0.8136981245239671</v>
       </c>
       <c r="I275">
-        <v>0.8136981245239672</v>
+        <v>0.8136981245239671</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="I276">
-        <v>-1.520456731840686</v>
+        <v>-1.520456731840685</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -8457,10 +8457,10 @@
         <v>2759.87</v>
       </c>
       <c r="H278">
-        <v>0.7225261672116057</v>
+        <v>0.7225261672116058</v>
       </c>
       <c r="I278">
-        <v>0.7225261672116057</v>
+        <v>0.7225261672116058</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -8515,10 +8515,10 @@
         <v>2610.549</v>
       </c>
       <c r="H280">
-        <v>0.8476512424884487</v>
+        <v>0.8476512424884485</v>
       </c>
       <c r="I280">
-        <v>0.8476512424884487</v>
+        <v>0.8476512424884485</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -8544,10 +8544,10 @@
         <v>2673.327</v>
       </c>
       <c r="H281">
-        <v>0.8893542286742286</v>
+        <v>0.8893542286742285</v>
       </c>
       <c r="I281">
-        <v>0.8893542286742286</v>
+        <v>0.8893542286742285</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -8631,10 +8631,10 @@
         <v>2614.988</v>
       </c>
       <c r="H284">
-        <v>0.9079158441895394</v>
+        <v>0.9079158441895393</v>
       </c>
       <c r="I284">
-        <v>0.9079158441895394</v>
+        <v>0.9079158441895393</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -8921,10 +8921,10 @@
         <v>2527.845</v>
       </c>
       <c r="H294">
-        <v>0.9967118166488727</v>
+        <v>0.9967118166488729</v>
       </c>
       <c r="I294">
-        <v>0.9967118166488727</v>
+        <v>0.9967118166488729</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -9124,10 +9124,10 @@
         <v>2237.683</v>
       </c>
       <c r="H301">
-        <v>1.614768876392347</v>
+        <v>1.614768876392348</v>
       </c>
       <c r="I301">
-        <v>1.614768876392347</v>
+        <v>1.614768876392348</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -9211,10 +9211,10 @@
         <v>2321.576</v>
       </c>
       <c r="H304">
-        <v>1.370274374072983</v>
+        <v>1.370274374072982</v>
       </c>
       <c r="I304">
-        <v>1.370274374072983</v>
+        <v>1.370274374072982</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -9240,10 +9240,10 @@
         <v>2303.932</v>
       </c>
       <c r="H305">
-        <v>1.463279601498035</v>
+        <v>1.463279601498036</v>
       </c>
       <c r="I305">
-        <v>1.463279601498035</v>
+        <v>1.463279601498036</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -9559,10 +9559,10 @@
         <v>2304.501</v>
       </c>
       <c r="H316">
-        <v>1.463374329327718</v>
+        <v>1.463374329327719</v>
       </c>
       <c r="I316">
-        <v>1.463374329327718</v>
+        <v>1.463374329327719</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -9733,10 +9733,10 @@
         <v>2265.334</v>
       </c>
       <c r="H322">
-        <v>1.461752665421555</v>
+        <v>1.461752665421554</v>
       </c>
       <c r="I322">
-        <v>1.461752665421555</v>
+        <v>1.461752665421554</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -10052,10 +10052,10 @@
         <v>2086.967</v>
       </c>
       <c r="H333">
-        <v>2.00034431689189</v>
+        <v>2.000344316891889</v>
       </c>
       <c r="I333">
-        <v>2.00034431689189</v>
+        <v>2.000344316891889</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -10081,10 +10081,10 @@
         <v>2155.707000000001</v>
       </c>
       <c r="H334">
-        <v>1.796431248128579</v>
+        <v>1.796431248128578</v>
       </c>
       <c r="I334">
-        <v>1.796431248128579</v>
+        <v>1.796431248128578</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="I356">
-        <v>-2.00034431689189</v>
+        <v>-2.000344316891889</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -10748,10 +10748,10 @@
         <v>2426.224</v>
       </c>
       <c r="H357">
-        <v>1.118450882635839</v>
+        <v>1.118450882635838</v>
       </c>
       <c r="I357">
-        <v>1.118450882635839</v>
+        <v>1.118450882635838</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -11012,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="I366">
-        <v>-1.796431248128579</v>
+        <v>-1.796431248128578</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -11212,10 +11212,10 @@
         <v>2481.955</v>
       </c>
       <c r="H373">
-        <v>0.9834901701805184</v>
+        <v>0.9834901701805182</v>
       </c>
       <c r="I373">
-        <v>0.9834901701805184</v>
+        <v>0.9834901701805182</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="I384">
-        <v>-1.614768876392347</v>
+        <v>-1.614768876392348</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -11824,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="I394">
-        <v>-1.461752665421555</v>
+        <v>-1.461752665421554</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -11911,7 +11911,7 @@
         <v>0</v>
       </c>
       <c r="I397">
-        <v>-1.463279601498035</v>
+        <v>-1.463279601498036</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="I403">
-        <v>-1.370274374072983</v>
+        <v>-1.370274374072982</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -12201,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="I407">
-        <v>-1.463374329327718</v>
+        <v>-1.463374329327719</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="I423">
-        <v>-1.389953137054292</v>
+        <v>-1.389953137054291</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -12955,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="I433">
-        <v>-1.118450882635839</v>
+        <v>-1.118450882635838</v>
       </c>
     </row>
     <row r="434" spans="1:9">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="I441">
-        <v>-1.407994020650507</v>
+        <v>-1.407994020650508</v>
       </c>
     </row>
     <row r="442" spans="1:9">
@@ -13274,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="I444">
-        <v>-1.17682680277194</v>
+        <v>-1.176826802771941</v>
       </c>
     </row>
     <row r="445" spans="1:9">
@@ -13651,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="I457">
-        <v>-0.9967118166488727</v>
+        <v>-0.9967118166488729</v>
       </c>
     </row>
     <row r="458" spans="1:9">
@@ -13738,7 +13738,7 @@
         <v>0</v>
       </c>
       <c r="I460">
-        <v>-0.9834901701805184</v>
+        <v>-0.9834901701805182</v>
       </c>
     </row>
     <row r="461" spans="1:9">
@@ -13941,7 +13941,7 @@
         <v>0</v>
       </c>
       <c r="I467">
-        <v>-1.162620608838131</v>
+        <v>-1.16262060883813</v>
       </c>
     </row>
     <row r="468" spans="1:9">
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="I469">
-        <v>-0.9464628288095204</v>
+        <v>-0.9464628288095203</v>
       </c>
     </row>
     <row r="470" spans="1:9">
@@ -14115,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="I473">
-        <v>-0.9180946061727153</v>
+        <v>-0.9180946061727152</v>
       </c>
     </row>
     <row r="474" spans="1:9">
@@ -14173,7 +14173,7 @@
         <v>0</v>
       </c>
       <c r="I475">
-        <v>-1.131681626006549</v>
+        <v>-1.13168162600655</v>
       </c>
     </row>
     <row r="476" spans="1:9">
@@ -14289,7 +14289,7 @@
         <v>0</v>
       </c>
       <c r="I479">
-        <v>-0.9966382305085987</v>
+        <v>-0.9966382305085989</v>
       </c>
     </row>
     <row r="480" spans="1:9">
@@ -14463,7 +14463,7 @@
         <v>0</v>
       </c>
       <c r="I485">
-        <v>-0.9964141067754376</v>
+        <v>-0.9964141067754378</v>
       </c>
     </row>
     <row r="486" spans="1:9">
@@ -14637,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="I491">
-        <v>-0.8136981245239672</v>
+        <v>-0.8136981245239671</v>
       </c>
     </row>
     <row r="492" spans="1:9">
@@ -14666,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="I492">
-        <v>-0.8476512424884487</v>
+        <v>-0.8476512424884485</v>
       </c>
     </row>
     <row r="493" spans="1:9">
@@ -14695,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="I493">
-        <v>-0.8893542286742286</v>
+        <v>-0.8893542286742285</v>
       </c>
     </row>
     <row r="494" spans="1:9">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="I495">
-        <v>-0.9079158441895394</v>
+        <v>-0.9079158441895393</v>
       </c>
     </row>
     <row r="496" spans="1:9">
@@ -14811,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="I497">
-        <v>-0.8579469746343559</v>
+        <v>-0.8579469746343558</v>
       </c>
     </row>
     <row r="498" spans="1:9">
@@ -14840,7 +14840,7 @@
         <v>0</v>
       </c>
       <c r="I498">
-        <v>-0.8862681507661092</v>
+        <v>-0.8862681507661093</v>
       </c>
     </row>
     <row r="499" spans="1:9">
@@ -14869,7 +14869,7 @@
         <v>0</v>
       </c>
       <c r="I499">
-        <v>-0.7225261672116057</v>
+        <v>-0.7225261672116058</v>
       </c>
     </row>
     <row r="500" spans="1:9">
@@ -14956,7 +14956,7 @@
         <v>0</v>
       </c>
       <c r="I502">
-        <v>-0.8346223759956662</v>
+        <v>-0.8346223759956661</v>
       </c>
     </row>
     <row r="503" spans="1:9">
@@ -14985,7 +14985,7 @@
         <v>0</v>
       </c>
       <c r="I503">
-        <v>-0.7531373552671513</v>
+        <v>-0.7531373552671514</v>
       </c>
     </row>
     <row r="504" spans="1:9">
@@ -15014,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="I504">
-        <v>-0.7801816959554714</v>
+        <v>-0.7801816959554713</v>
       </c>
     </row>
     <row r="505" spans="1:9">
@@ -15130,7 +15130,7 @@
         <v>0</v>
       </c>
       <c r="I508">
-        <v>-0.603369724653676</v>
+        <v>-0.6033697246536761</v>
       </c>
     </row>
     <row r="509" spans="1:9">
@@ -15159,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="I509">
-        <v>-0.6425110849572792</v>
+        <v>-0.6425110849572793</v>
       </c>
     </row>
     <row r="510" spans="1:9">
@@ -15185,10 +15185,10 @@
         <v>3335.419000000001</v>
       </c>
       <c r="H510">
-        <v>0.3095959165425119</v>
+        <v>0.3095959165425118</v>
       </c>
       <c r="I510">
-        <v>0.3095959165425119</v>
+        <v>0.3095959165425118</v>
       </c>
     </row>
     <row r="511" spans="1:9">
@@ -15246,7 +15246,7 @@
         <v>0</v>
       </c>
       <c r="I512">
-        <v>-0.6296566538303348</v>
+        <v>-0.6296566538303346</v>
       </c>
     </row>
     <row r="513" spans="1:9">
@@ -15275,7 +15275,7 @@
         <v>0</v>
       </c>
       <c r="I513">
-        <v>-0.6611355406517189</v>
+        <v>-0.6611355406517188</v>
       </c>
     </row>
     <row r="514" spans="1:9">
@@ -15391,7 +15391,7 @@
         <v>0</v>
       </c>
       <c r="I517">
-        <v>-0.6674056489113526</v>
+        <v>-0.6674056489113525</v>
       </c>
     </row>
     <row r="518" spans="1:9">
@@ -15449,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="I519">
-        <v>-0.5676786693235892</v>
+        <v>-0.5676786693235893</v>
       </c>
     </row>
     <row r="520" spans="1:9">
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="I522">
-        <v>-0.5403481409770495</v>
+        <v>-0.5403481409770494</v>
       </c>
     </row>
     <row r="523" spans="1:9">
@@ -15565,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="I523">
-        <v>-0.5409700732867904</v>
+        <v>-0.5409700732867905</v>
       </c>
     </row>
     <row r="524" spans="1:9">
@@ -15768,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="I530">
-        <v>-0.482635093539692</v>
+        <v>-0.4826350935396919</v>
       </c>
     </row>
     <row r="531" spans="1:9">
@@ -15797,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="I531">
-        <v>-0.489677819063988</v>
+        <v>-0.4896778190639879</v>
       </c>
     </row>
     <row r="532" spans="1:9">
@@ -15826,7 +15826,7 @@
         <v>0</v>
       </c>
       <c r="I532">
-        <v>-0.4810399975087288</v>
+        <v>-0.4810399975087289</v>
       </c>
     </row>
     <row r="533" spans="1:9">
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="I545">
-        <v>-0.4445918970980007</v>
+        <v>-0.4445918970980006</v>
       </c>
     </row>
     <row r="546" spans="1:9">
@@ -16290,7 +16290,7 @@
         <v>0</v>
       </c>
       <c r="I548">
-        <v>-0.435907960876439</v>
+        <v>-0.4359079608764391</v>
       </c>
     </row>
     <row r="549" spans="1:9">
@@ -16435,7 +16435,7 @@
         <v>0</v>
       </c>
       <c r="I553">
-        <v>-0.4920285668654157</v>
+        <v>-0.4920285668654158</v>
       </c>
     </row>
     <row r="554" spans="1:9">
@@ -16609,7 +16609,7 @@
         <v>0</v>
       </c>
       <c r="I559">
-        <v>-0.3976419905455258</v>
+        <v>-0.3976419905455259</v>
       </c>
     </row>
     <row r="560" spans="1:9">
@@ -16783,7 +16783,7 @@
         <v>0</v>
       </c>
       <c r="I565">
-        <v>-0.4226464594404263</v>
+        <v>-0.4226464594404264</v>
       </c>
     </row>
     <row r="566" spans="1:9">
@@ -16870,7 +16870,7 @@
         <v>0</v>
       </c>
       <c r="I568">
-        <v>-0.4184761812482808</v>
+        <v>-0.4184761812482809</v>
       </c>
     </row>
     <row r="569" spans="1:9">
@@ -16957,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="I571">
-        <v>-0.3095959165425119</v>
+        <v>-0.3095959165425118</v>
       </c>
     </row>
     <row r="572" spans="1:9">
@@ -17044,7 +17044,7 @@
         <v>0</v>
       </c>
       <c r="I574">
-        <v>-0.3510093897157433</v>
+        <v>-0.3510093897157434</v>
       </c>
     </row>
     <row r="575" spans="1:9">
@@ -17073,7 +17073,7 @@
         <v>0</v>
       </c>
       <c r="I575">
-        <v>-0.3838792999885052</v>
+        <v>-0.3838792999885051</v>
       </c>
     </row>
     <row r="576" spans="1:9">
@@ -17102,7 +17102,7 @@
         <v>0</v>
       </c>
       <c r="I576">
-        <v>-0.3685181609311521</v>
+        <v>-0.3685181609311522</v>
       </c>
     </row>
     <row r="577" spans="1:9">
@@ -17276,7 +17276,7 @@
         <v>0</v>
       </c>
       <c r="I582">
-        <v>-0.3512483434169386</v>
+        <v>-0.3512483434169387</v>
       </c>
     </row>
     <row r="583" spans="1:9">
@@ -17624,7 +17624,7 @@
         <v>0</v>
       </c>
       <c r="I594">
-        <v>-0.2827349768276614</v>
+        <v>-0.2827349768276613</v>
       </c>
     </row>
     <row r="595" spans="1:9">
@@ -17682,7 +17682,7 @@
         <v>0</v>
       </c>
       <c r="I596">
-        <v>-0.3269726795153078</v>
+        <v>-0.3269726795153077</v>
       </c>
     </row>
     <row r="597" spans="1:9">
@@ -18030,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="I608">
-        <v>-0.2442165423337765</v>
+        <v>-0.2442165423337764</v>
       </c>
     </row>
     <row r="609" spans="1:9">
@@ -18201,10 +18201,10 @@
         <v>4740.892</v>
       </c>
       <c r="H614">
-        <v>0.08043480959338042</v>
+        <v>0.08043480959338041</v>
       </c>
       <c r="I614">
-        <v>0.08043480959338042</v>
+        <v>0.08043480959338041</v>
       </c>
     </row>
     <row r="615" spans="1:9">
@@ -18230,10 +18230,10 @@
         <v>4749.886</v>
       </c>
       <c r="H615">
-        <v>0.07936725096936895</v>
+        <v>0.07936725096936896</v>
       </c>
       <c r="I615">
-        <v>0.07936725096936895</v>
+        <v>0.07936725096936896</v>
       </c>
     </row>
     <row r="616" spans="1:9">
@@ -18549,10 +18549,10 @@
         <v>4706.5159</v>
       </c>
       <c r="H626">
-        <v>0.07737876831022304</v>
+        <v>0.07737876831022306</v>
       </c>
       <c r="I626">
-        <v>0.07737876831022304</v>
+        <v>0.07737876831022306</v>
       </c>
     </row>
     <row r="627" spans="1:9">
@@ -18607,10 +18607,10 @@
         <v>3897.6263</v>
       </c>
       <c r="H628">
-        <v>0.2335983579402317</v>
+        <v>0.2335983579402318</v>
       </c>
       <c r="I628">
-        <v>0.2335983579402317</v>
+        <v>0.2335983579402318</v>
       </c>
     </row>
     <row r="629" spans="1:9">
@@ -18694,10 +18694,10 @@
         <v>3815.4118</v>
       </c>
       <c r="H631">
-        <v>0.190027823536239</v>
+        <v>0.1900278235362391</v>
       </c>
       <c r="I631">
-        <v>0.190027823536239</v>
+        <v>0.1900278235362391</v>
       </c>
     </row>
     <row r="632" spans="1:9">
@@ -18868,10 +18868,10 @@
         <v>3236.9986</v>
       </c>
       <c r="H637">
-        <v>0.3818533540314174</v>
+        <v>0.3818533540314173</v>
       </c>
       <c r="I637">
-        <v>0.3818533540314174</v>
+        <v>0.3818533540314173</v>
       </c>
     </row>
     <row r="638" spans="1:9">
@@ -18897,10 +18897,10 @@
         <v>3284.9991</v>
       </c>
       <c r="H638">
-        <v>0.3795767250539047</v>
+        <v>0.3795767250539048</v>
       </c>
       <c r="I638">
-        <v>0.3795767250539047</v>
+        <v>0.3795767250539048</v>
       </c>
     </row>
     <row r="639" spans="1:9">
@@ -19103,7 +19103,7 @@
         <v>0</v>
       </c>
       <c r="I645">
-        <v>-0.3818533540314174</v>
+        <v>-0.3818533540314173</v>
       </c>
     </row>
     <row r="646" spans="1:9">
@@ -19132,7 +19132,7 @@
         <v>0</v>
       </c>
       <c r="I646">
-        <v>-0.3795767250539047</v>
+        <v>-0.3795767250539048</v>
       </c>
     </row>
     <row r="647" spans="1:9">
@@ -19332,10 +19332,10 @@
         <v>3755.8881</v>
       </c>
       <c r="H653">
-        <v>0.2326572904685547</v>
+        <v>0.2326572904685548</v>
       </c>
       <c r="I653">
-        <v>0.2326572904685547</v>
+        <v>0.2326572904685548</v>
       </c>
     </row>
     <row r="654" spans="1:9">
@@ -19709,10 +19709,10 @@
         <v>3124.2039</v>
       </c>
       <c r="H666">
-        <v>0.4862852248351986</v>
+        <v>0.4862852248351987</v>
       </c>
       <c r="I666">
-        <v>0.4862852248351986</v>
+        <v>0.4862852248351987</v>
       </c>
     </row>
     <row r="667" spans="1:9">
@@ -19767,10 +19767,10 @@
         <v>3218.0879</v>
       </c>
       <c r="H668">
-        <v>0.4168154918849313</v>
+        <v>0.4168154918849314</v>
       </c>
       <c r="I668">
-        <v>0.4168154918849313</v>
+        <v>0.4168154918849314</v>
       </c>
     </row>
     <row r="669" spans="1:9">
@@ -19883,10 +19883,10 @@
         <v>3160.5809</v>
       </c>
       <c r="H672">
-        <v>0.4500147149434782</v>
+        <v>0.4500147149434783</v>
       </c>
       <c r="I672">
-        <v>0.4500147149434782</v>
+        <v>0.4500147149434783</v>
       </c>
     </row>
     <row r="673" spans="1:9">
@@ -19941,10 +19941,10 @@
         <v>3090.1372</v>
       </c>
       <c r="H674">
-        <v>0.5122819710280355</v>
+        <v>0.5122819710280354</v>
       </c>
       <c r="I674">
-        <v>0.5122819710280355</v>
+        <v>0.5122819710280354</v>
       </c>
     </row>
     <row r="675" spans="1:9">
@@ -20086,10 +20086,10 @@
         <v>3117.3168</v>
       </c>
       <c r="H679">
-        <v>0.4753285926800319</v>
+        <v>0.4753285926800318</v>
       </c>
       <c r="I679">
-        <v>0.4753285926800319</v>
+        <v>0.4753285926800318</v>
       </c>
     </row>
     <row r="680" spans="1:9">
@@ -20115,10 +20115,10 @@
         <v>3153.921</v>
       </c>
       <c r="H680">
-        <v>0.4597603224613602</v>
+        <v>0.4597603224613601</v>
       </c>
       <c r="I680">
-        <v>0.4597603224613602</v>
+        <v>0.4597603224613601</v>
       </c>
     </row>
     <row r="681" spans="1:9">
@@ -20376,10 +20376,10 @@
         <v>3364.4851</v>
       </c>
       <c r="H689">
-        <v>0.354479291966543</v>
+        <v>0.3544792919665429</v>
       </c>
       <c r="I689">
-        <v>0.354479291966543</v>
+        <v>0.3544792919665429</v>
       </c>
     </row>
     <row r="690" spans="1:9">
@@ -20521,10 +20521,10 @@
         <v>3244.3874</v>
       </c>
       <c r="H694">
-        <v>0.4171461716262906</v>
+        <v>0.4171461716262905</v>
       </c>
       <c r="I694">
-        <v>0.4171461716262906</v>
+        <v>0.4171461716262905</v>
       </c>
     </row>
     <row r="695" spans="1:9">
@@ -20608,10 +20608,10 @@
         <v>3345.695</v>
       </c>
       <c r="H697">
-        <v>0.364489964746028</v>
+        <v>0.3644899647460281</v>
       </c>
       <c r="I697">
-        <v>0.364489964746028</v>
+        <v>0.3644899647460281</v>
       </c>
     </row>
     <row r="698" spans="1:9">
@@ -20959,7 +20959,7 @@
         <v>0</v>
       </c>
       <c r="I709">
-        <v>-0.5122819710280355</v>
+        <v>-0.5122819710280354</v>
       </c>
     </row>
     <row r="710" spans="1:9">
@@ -20985,10 +20985,10 @@
         <v>3565.036</v>
       </c>
       <c r="H710">
-        <v>0.2912389194837684</v>
+        <v>0.2912389194837683</v>
       </c>
       <c r="I710">
-        <v>0.2912389194837684</v>
+        <v>0.2912389194837683</v>
       </c>
     </row>
     <row r="711" spans="1:9">
@@ -21101,10 +21101,10 @@
         <v>3335.672</v>
       </c>
       <c r="H714">
-        <v>0.3746221719816518</v>
+        <v>0.3746221719816517</v>
       </c>
       <c r="I714">
-        <v>0.3746221719816518</v>
+        <v>0.3746221719816517</v>
       </c>
     </row>
     <row r="715" spans="1:9">
@@ -21159,10 +21159,10 @@
         <v>3367.7892</v>
       </c>
       <c r="H716">
-        <v>0.360674052576361</v>
+        <v>0.3606740525763609</v>
       </c>
       <c r="I716">
-        <v>0.360674052576361</v>
+        <v>0.3606740525763609</v>
       </c>
     </row>
     <row r="717" spans="1:9">
@@ -21246,10 +21246,10 @@
         <v>3387.9606</v>
       </c>
       <c r="H719">
-        <v>0.3561374816858001</v>
+        <v>0.3561374816858</v>
       </c>
       <c r="I719">
-        <v>0.3561374816858001</v>
+        <v>0.3561374816858</v>
       </c>
     </row>
     <row r="720" spans="1:9">
@@ -21420,10 +21420,10 @@
         <v>3481.5066</v>
       </c>
       <c r="H725">
-        <v>0.3207700301081186</v>
+        <v>0.3207700301081187</v>
       </c>
       <c r="I725">
-        <v>0.3207700301081186</v>
+        <v>0.3207700301081187</v>
       </c>
     </row>
     <row r="726" spans="1:9">
@@ -21565,10 +21565,10 @@
         <v>3461.5481</v>
       </c>
       <c r="H730">
-        <v>0.3319636076678153</v>
+        <v>0.3319636076678152</v>
       </c>
       <c r="I730">
-        <v>0.3319636076678153</v>
+        <v>0.3319636076678152</v>
       </c>
     </row>
     <row r="731" spans="1:9">
@@ -21710,10 +21710,10 @@
         <v>3485.6581</v>
       </c>
       <c r="H735">
-        <v>0.3398019598065686</v>
+        <v>0.3398019598065687</v>
       </c>
       <c r="I735">
-        <v>0.3398019598065686</v>
+        <v>0.3398019598065687</v>
       </c>
     </row>
     <row r="736" spans="1:9">
@@ -21858,7 +21858,7 @@
         <v>0</v>
       </c>
       <c r="I740">
-        <v>-0.4862852248351986</v>
+        <v>-0.4862852248351987</v>
       </c>
     </row>
     <row r="741" spans="1:9">
@@ -21887,7 +21887,7 @@
         <v>0</v>
       </c>
       <c r="I741">
-        <v>-0.4753285926800319</v>
+        <v>-0.4753285926800318</v>
       </c>
     </row>
     <row r="742" spans="1:9">
@@ -21916,7 +21916,7 @@
         <v>0</v>
       </c>
       <c r="I742">
-        <v>-0.4597603224613602</v>
+        <v>-0.4597603224613601</v>
       </c>
     </row>
     <row r="743" spans="1:9">
@@ -22003,7 +22003,7 @@
         <v>0</v>
       </c>
       <c r="I745">
-        <v>-0.4500147149434782</v>
+        <v>-0.4500147149434783</v>
       </c>
     </row>
     <row r="746" spans="1:9">
@@ -22116,10 +22116,10 @@
         <v>3686.9205</v>
       </c>
       <c r="H749">
-        <v>0.2641474280372998</v>
+        <v>0.2641474280372997</v>
       </c>
       <c r="I749">
-        <v>0.2641474280372998</v>
+        <v>0.2641474280372997</v>
       </c>
     </row>
     <row r="750" spans="1:9">
@@ -22293,7 +22293,7 @@
         <v>0</v>
       </c>
       <c r="I755">
-        <v>-0.4168154918849313</v>
+        <v>-0.4168154918849314</v>
       </c>
     </row>
     <row r="756" spans="1:9">
@@ -22377,10 +22377,10 @@
         <v>3747.8843</v>
       </c>
       <c r="H758">
-        <v>0.2469160391965012</v>
+        <v>0.2469160391965011</v>
       </c>
       <c r="I758">
-        <v>0.2469160391965012</v>
+        <v>0.2469160391965011</v>
       </c>
     </row>
     <row r="759" spans="1:9">
@@ -22409,7 +22409,7 @@
         <v>0</v>
       </c>
       <c r="I759">
-        <v>-0.4171461716262906</v>
+        <v>-0.4171461716262905</v>
       </c>
     </row>
     <row r="760" spans="1:9">
@@ -22873,7 +22873,7 @@
         <v>0</v>
       </c>
       <c r="I775">
-        <v>-0.3746221719816518</v>
+        <v>-0.3746221719816517</v>
       </c>
     </row>
     <row r="776" spans="1:9">
@@ -23047,7 +23047,7 @@
         <v>0</v>
       </c>
       <c r="I781">
-        <v>-0.364489964746028</v>
+        <v>-0.3644899647460281</v>
       </c>
     </row>
     <row r="782" spans="1:9">
@@ -23192,7 +23192,7 @@
         <v>0</v>
       </c>
       <c r="I786">
-        <v>-0.354479291966543</v>
+        <v>-0.3544792919665429</v>
       </c>
     </row>
     <row r="787" spans="1:9">
@@ -23279,7 +23279,7 @@
         <v>0</v>
       </c>
       <c r="I789">
-        <v>-0.360674052576361</v>
+        <v>-0.3606740525763609</v>
       </c>
     </row>
     <row r="790" spans="1:9">
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="I790">
-        <v>-0.3561374816858001</v>
+        <v>-0.3561374816858</v>
       </c>
     </row>
     <row r="791" spans="1:9">
@@ -23772,7 +23772,7 @@
         <v>0</v>
       </c>
       <c r="I806">
-        <v>-0.3319636076678153</v>
+        <v>-0.3319636076678152</v>
       </c>
     </row>
     <row r="807" spans="1:9">
@@ -23888,7 +23888,7 @@
         <v>0</v>
       </c>
       <c r="I810">
-        <v>-0.3207700301081186</v>
+        <v>-0.3207700301081187</v>
       </c>
     </row>
     <row r="811" spans="1:9">
@@ -23917,7 +23917,7 @@
         <v>0</v>
       </c>
       <c r="I811">
-        <v>-0.3398019598065686</v>
+        <v>-0.3398019598065687</v>
       </c>
     </row>
     <row r="812" spans="1:9">
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="I820">
-        <v>-0.2912389194837684</v>
+        <v>-0.2912389194837683</v>
       </c>
     </row>
     <row r="821" spans="1:9">
@@ -24262,10 +24262,10 @@
         <v>4105.0122</v>
       </c>
       <c r="H823">
-        <v>0.1828687184077585</v>
+        <v>0.1828687184077586</v>
       </c>
       <c r="I823">
-        <v>0.1828687184077585</v>
+        <v>0.1828687184077586</v>
       </c>
     </row>
     <row r="824" spans="1:9">
@@ -24552,10 +24552,10 @@
         <v>4128.8119</v>
       </c>
       <c r="H833">
-        <v>0.1773377750801108</v>
+        <v>0.1773377750801107</v>
       </c>
       <c r="I833">
-        <v>0.1773377750801108</v>
+        <v>0.1773377750801107</v>
       </c>
     </row>
     <row r="834" spans="1:9">
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="I835">
-        <v>-0.2641474280372998</v>
+        <v>-0.2641474280372997</v>
       </c>
     </row>
     <row r="836" spans="1:9">
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="I845">
-        <v>-0.2326572904685547</v>
+        <v>-0.2326572904685548</v>
       </c>
     </row>
     <row r="846" spans="1:9">
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="I847">
-        <v>-0.2469160391965012</v>
+        <v>-0.2469160391965011</v>
       </c>
     </row>
     <row r="848" spans="1:9">
@@ -25048,7 +25048,7 @@
         <v>0</v>
       </c>
       <c r="I850">
-        <v>-0.190027823536239</v>
+        <v>-0.1900278235362391</v>
       </c>
     </row>
     <row r="851" spans="1:9">
@@ -25190,10 +25190,10 @@
         <v>4052.7332</v>
       </c>
       <c r="H855">
-        <v>0.1982657939515979</v>
+        <v>0.1982657939515978</v>
       </c>
       <c r="I855">
-        <v>0.1982657939515979</v>
+        <v>0.1982657939515978</v>
       </c>
     </row>
     <row r="856" spans="1:9">
@@ -25538,10 +25538,10 @@
         <v>3827.217</v>
       </c>
       <c r="H867">
-        <v>0.2418171450129426</v>
+        <v>0.2418171450129427</v>
       </c>
       <c r="I867">
-        <v>0.2418171450129426</v>
+        <v>0.2418171450129427</v>
       </c>
     </row>
     <row r="868" spans="1:9">
@@ -25828,10 +25828,10 @@
         <v>3370.9579</v>
       </c>
       <c r="H877">
-        <v>0.3905612096797452</v>
+        <v>0.3905612096797451</v>
       </c>
       <c r="I877">
-        <v>0.3905612096797452</v>
+        <v>0.3905612096797451</v>
       </c>
     </row>
     <row r="878" spans="1:9">
@@ -25886,10 +25886,10 @@
         <v>3276.7276</v>
       </c>
       <c r="H879">
-        <v>0.473736741614101</v>
+        <v>0.4737367416141011</v>
       </c>
       <c r="I879">
-        <v>0.473736741614101</v>
+        <v>0.4737367416141011</v>
       </c>
     </row>
     <row r="880" spans="1:9">
@@ -25973,10 +25973,10 @@
         <v>3262.8808</v>
       </c>
       <c r="H882">
-        <v>0.461307467003266</v>
+        <v>0.4613074670032659</v>
       </c>
       <c r="I882">
-        <v>0.461307467003266</v>
+        <v>0.4613074670032659</v>
       </c>
     </row>
     <row r="883" spans="1:9">
@@ -26263,10 +26263,10 @@
         <v>3214.4273</v>
       </c>
       <c r="H892">
-        <v>0.4932643981407619</v>
+        <v>0.493264398140762</v>
       </c>
       <c r="I892">
-        <v>0.4932643981407619</v>
+        <v>0.493264398140762</v>
       </c>
     </row>
     <row r="893" spans="1:9">
@@ -26292,10 +26292,10 @@
         <v>3137.6542</v>
       </c>
       <c r="H893">
-        <v>0.5218207850678008</v>
+        <v>0.5218207850678007</v>
       </c>
       <c r="I893">
-        <v>0.5218207850678008</v>
+        <v>0.5218207850678007</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -26321,10 +26321,10 @@
         <v>3181.673</v>
       </c>
       <c r="H894">
-        <v>0.505486707162096</v>
+        <v>0.5054867071620959</v>
       </c>
       <c r="I894">
-        <v>0.505486707162096</v>
+        <v>0.5054867071620959</v>
       </c>
     </row>
     <row r="895" spans="1:9">
@@ -26350,10 +26350,10 @@
         <v>3219.6924</v>
       </c>
       <c r="H895">
-        <v>0.5183463477222146</v>
+        <v>0.5183463477222147</v>
       </c>
       <c r="I895">
-        <v>0.5183463477222146</v>
+        <v>0.5183463477222147</v>
       </c>
     </row>
     <row r="896" spans="1:9">
@@ -26495,10 +26495,10 @@
         <v>3111.4168</v>
       </c>
       <c r="H900">
-        <v>0.5607208275636617</v>
+        <v>0.5607208275636616</v>
       </c>
       <c r="I900">
-        <v>0.5607208275636617</v>
+        <v>0.5607208275636616</v>
       </c>
     </row>
     <row r="901" spans="1:9">
@@ -26962,7 +26962,7 @@
         <v>0</v>
       </c>
       <c r="I916">
-        <v>-0.4932643981407619</v>
+        <v>-0.493264398140762</v>
       </c>
     </row>
     <row r="917" spans="1:9">
@@ -26991,7 +26991,7 @@
         <v>0</v>
       </c>
       <c r="I917">
-        <v>-0.5218207850678008</v>
+        <v>-0.5218207850678007</v>
       </c>
     </row>
     <row r="918" spans="1:9">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="I918">
-        <v>-0.505486707162096</v>
+        <v>-0.5054867071620959</v>
       </c>
     </row>
     <row r="919" spans="1:9">
@@ -27049,7 +27049,7 @@
         <v>0</v>
       </c>
       <c r="I919">
-        <v>-0.5183463477222146</v>
+        <v>-0.5183463477222147</v>
       </c>
     </row>
     <row r="920" spans="1:9">
@@ -27078,7 +27078,7 @@
         <v>0</v>
       </c>
       <c r="I920">
-        <v>-0.5607208275636617</v>
+        <v>-0.5607208275636616</v>
       </c>
     </row>
     <row r="921" spans="1:9">
@@ -27194,7 +27194,7 @@
         <v>0</v>
       </c>
       <c r="I924">
-        <v>-0.473736741614101</v>
+        <v>-0.4737367416141011</v>
       </c>
     </row>
     <row r="925" spans="1:9">
@@ -27223,7 +27223,7 @@
         <v>0</v>
       </c>
       <c r="I925">
-        <v>-0.461307467003266</v>
+        <v>-0.4613074670032659</v>
       </c>
     </row>
     <row r="926" spans="1:9">
@@ -27484,7 +27484,7 @@
         <v>0</v>
       </c>
       <c r="I934">
-        <v>-0.3905612096797452</v>
+        <v>-0.3905612096797451</v>
       </c>
     </row>
     <row r="935" spans="1:9">
@@ -27771,10 +27771,10 @@
         <v>3997.5778</v>
       </c>
       <c r="H944">
-        <v>0.2001402360032172</v>
+        <v>0.2001402360032173</v>
       </c>
       <c r="I944">
-        <v>0.2001402360032172</v>
+        <v>0.2001402360032173</v>
       </c>
     </row>
     <row r="945" spans="1:9">
@@ -27887,10 +27887,10 @@
         <v>3743.9635</v>
       </c>
       <c r="H948">
-        <v>0.2837125495089736</v>
+        <v>0.2837125495089737</v>
       </c>
       <c r="I948">
-        <v>0.2837125495089736</v>
+        <v>0.2837125495089737</v>
       </c>
     </row>
     <row r="949" spans="1:9">
@@ -28148,10 +28148,10 @@
         <v>3768.4019</v>
       </c>
       <c r="H957">
-        <v>0.2676636218577204</v>
+        <v>0.2676636218577205</v>
       </c>
       <c r="I957">
-        <v>0.2676636218577204</v>
+        <v>0.2676636218577205</v>
       </c>
     </row>
     <row r="958" spans="1:9">
